--- a/loinc_dataset-v2.xlsx
+++ b/loinc_dataset-v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xps\Dropbox\Docencia Biomedica\ML-ranking\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/victor/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F311E117-A311-4CB7-A254-536CE0F28426}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB0B36FD-0FD5-6B48-BF81-8F2D8761502D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="10920" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="glucose in blood" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="368">
   <si>
     <t>14749-6</t>
   </si>
@@ -708,6 +708,429 @@
   </si>
   <si>
     <t>Query: WHITE BLOOD CELLS COUNT</t>
+  </si>
+  <si>
+    <t>relevant</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>we do not need to know the severity of inflammatory diseases such as rheumatoid arthritis in order to check and analyse glucose in blood</t>
+  </si>
+  <si>
+    <t>we need to know the level of bilirrubin in plasma, not the severity of the inflammatory disease by studying the concentration of CRP in this plasma</t>
+  </si>
+  <si>
+    <t>C reactive protein and white blood cells are both agents that fight infections and inflammation, so they might be correlated</t>
+  </si>
+  <si>
+    <t>mid</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>although there is no direct relationship between these markers, it also true that changes in glucose levels in diabetic ketoacidosis patients can affect bicarbonate levels. Basically the body trying to regulate its own pH levels.</t>
+  </si>
+  <si>
+    <t>it seems like there is no correlation between bilirubin and this marker</t>
+  </si>
+  <si>
+    <t>it appears that this marker is more related to red blood cells, meaning that at first glance, there is no correlation with white blood cells</t>
+  </si>
+  <si>
+    <t>Rh factor is found on the surface of red blood cells, so apparently there is no correlation with white blood cells</t>
+  </si>
+  <si>
+    <t>at first glance, there is no correlation between bilirubin and Rh factor</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>there is no correlation between glucose and TMP-SMX (also known as Bactrim)</t>
+  </si>
+  <si>
+    <t>there is no correlation between bilirubin and TMP-SMX (also known as Bactrim)</t>
+  </si>
+  <si>
+    <t>this is the measurement of certain antibiotic, which is directly correlated with the presence of white blood cells, since both fight infections (bacterias in this case).</t>
+  </si>
+  <si>
+    <t>it is exactly the query</t>
+  </si>
+  <si>
+    <t>bilirubin and glucose levels do not have to be correlated in any way under normal circumstances</t>
+  </si>
+  <si>
+    <t>bilirubin and white blood cells do not have to be correlated in any way under normal circumstances</t>
+  </si>
+  <si>
+    <t>it is exactly the query, since synovial fluid is similar to plasma</t>
+  </si>
+  <si>
+    <t>it is almost exactly the query</t>
+  </si>
+  <si>
+    <t>under normal circumstances, glucose and bilirubin do not have to be correlated</t>
+  </si>
+  <si>
+    <t>under normal circumstances, glucose and white blood cells are not correlated</t>
+  </si>
+  <si>
+    <t>it is similar to the query but different sytem (blood and pleural fluid)</t>
+  </si>
+  <si>
+    <t>in normal circumstances, antibody screen test is not related with glucose</t>
+  </si>
+  <si>
+    <t>bilirubin and antibody screen test are not correlated at first glance</t>
+  </si>
+  <si>
+    <t>since the result of antibody screen test may indicate the existence of white blood cells, we could say that there is a small correlation</t>
+  </si>
+  <si>
+    <t>under normal circumstances, carbon dioxide and glucose do not have to be correlated</t>
+  </si>
+  <si>
+    <t>under normal circumstances, bilirubin and carbon dioxide do not have to be correlated</t>
+  </si>
+  <si>
+    <t>white blood cells and carbon dioxide do not have to be correlated under normal circumstances</t>
+  </si>
+  <si>
+    <t>Rh type is not a relevant marker when checking glucose levels in blood</t>
+  </si>
+  <si>
+    <t>Ciprofloxacin is not a relevant marker when looking for glucose levels in blood</t>
+  </si>
+  <si>
+    <t>Ciprofloxacin is not a relevant marker when looking for bilirubin in plasma</t>
+  </si>
+  <si>
+    <t>as ciprofloxacin is used to treat bacterial infections, it could be said that it is related with white blood cells since it can indirectly affect them by killing the bacterias</t>
+  </si>
+  <si>
+    <t>Cortisol and glucose levels are correlated, since one of its functions is to increase blood sugar levels. When cortisol is high, there is an associated increase in glucose</t>
+  </si>
+  <si>
+    <t>bilirubin and cortisol are not usually correlated</t>
+  </si>
+  <si>
+    <t>it is proved that cortisol can affect the number and function of white blood cells. Moreover, it can also stimulate the production of certain types of white blood cells</t>
+  </si>
+  <si>
+    <t>at first glance, chloride does not have to be correlated with bilirubin</t>
+  </si>
+  <si>
+    <t>at first glance, chloride does not have to be correlated with glucose</t>
+  </si>
+  <si>
+    <t>at first glance, chloride does not have to be correlated with white blood cells</t>
+  </si>
+  <si>
+    <t>glucose and protein C are not correlated under normal circumstances</t>
+  </si>
+  <si>
+    <t>bilirubin and protein C are not correlated under normal circumstances</t>
+  </si>
+  <si>
+    <t>white blood cells and protein C are not correlated under normal circumstances</t>
+  </si>
+  <si>
+    <t>ampicillin can affect blood sugar levels in certain individuals/circumstances</t>
+  </si>
+  <si>
+    <t>ampicillin can cause an increase in bilirubin levels in certain individuals/circumstances</t>
+  </si>
+  <si>
+    <t>ampicillin is an antibiotic used to treat bacterial infections, so it can cause an increase in the amount of white blood cells</t>
+  </si>
+  <si>
+    <t>usually, there is no correlation between amylase and glucose</t>
+  </si>
+  <si>
+    <t>usually, there is no correlation between amylase and bilirubin</t>
+  </si>
+  <si>
+    <t>usually, there is no correlation between amylase and white blood cells</t>
+  </si>
+  <si>
+    <t>lymphocytes can affect blood sugar levels in certain individuals/circumstances</t>
+  </si>
+  <si>
+    <t>Aspartate aminotransferase can affect glucose levels under certain circumstances</t>
+  </si>
+  <si>
+    <t>uncontrolled diabetes (glucose levels) can change cholesterol levels</t>
+  </si>
+  <si>
+    <t>uncontrolled diabetes (glucose levels) can decrease the levels of leukocytes and functions</t>
+  </si>
+  <si>
+    <t>people with uncontrolled levels of glucose can have an increased risk of infections, leading to higher levels of monocytes</t>
+  </si>
+  <si>
+    <t>people with uncontrolled levels of glucose may have higher C reactive protein levels due to chronic inflammation</t>
+  </si>
+  <si>
+    <t>normally, there is no correlation between glucose and albumin/globulin</t>
+  </si>
+  <si>
+    <t>Measuring melathinin resistant staphylococus has no relationship with glucos levels in blood</t>
+  </si>
+  <si>
+    <t>There doesn’t have to be a correlation between blood type disposition and glucose</t>
+  </si>
+  <si>
+    <t>Body temperature doesn’t have to be correlated to glucose in blood</t>
+  </si>
+  <si>
+    <t>There is no correlation between glucose in blood and blood product unit ID</t>
+  </si>
+  <si>
+    <t>High levels of ALT can lead to diabetes, but does not relate directly to glucose levels in blood</t>
+  </si>
+  <si>
+    <t>No relationship has been established between this two markers</t>
+  </si>
+  <si>
+    <t>this test is performed to detect certain antibodies for ceratin types of blood, it has no direct realtionship with glucose levels in blood</t>
+  </si>
+  <si>
+    <t>No correlation between antibiotics presence and glucose levels in blood</t>
+  </si>
+  <si>
+    <t>No correlation between blood rh type and glucose levels in blood</t>
+  </si>
+  <si>
+    <t>no correlation between the way blood compatibility is tested and glucose levels in blood</t>
+  </si>
+  <si>
+    <t>No correlation between blood group type and glucose levels in blood</t>
+  </si>
+  <si>
+    <t>No direct correlation between B12 vitamin and glucose levels in blood</t>
+  </si>
+  <si>
+    <t>No direct correlation between hematrocites and glucose levels in blood</t>
+  </si>
+  <si>
+    <t>No correlation between alkaline phosphatase and glucose levels in blood</t>
+  </si>
+  <si>
+    <t>Uncontrolled diabetes can affect both chloride and glucose levels in blood</t>
+  </si>
+  <si>
+    <t>No correlation between Tyrosine aminotransferase and glucose levels in blood</t>
+  </si>
+  <si>
+    <t>No correlation between the presence of Hepatitis B virus DNA and glucose levels</t>
+  </si>
+  <si>
+    <t>No direct correlation between these two markers</t>
+  </si>
+  <si>
+    <t>There is no direct relationship between these two markers</t>
+  </si>
+  <si>
+    <t>No correlation seems to exist between these two markers</t>
+  </si>
+  <si>
+    <t>No direct correlation has been established between this antigen and glucose</t>
+  </si>
+  <si>
+    <t>No correlation between blood product type and and glucose levels</t>
+  </si>
+  <si>
+    <t>No clear correlation between these two markers</t>
+  </si>
+  <si>
+    <t>Can be related in special cases mixed with other factors such as pregnancy</t>
+  </si>
+  <si>
+    <t>Low levels of calcium ionized can lead to hypoglycemia</t>
+  </si>
+  <si>
+    <t>HDl can affect glucose levels</t>
+  </si>
+  <si>
+    <t>No correlation between these two markers</t>
+  </si>
+  <si>
+    <t>No correlation between this antibiotic and glucose levels in blood</t>
+  </si>
+  <si>
+    <t>High levels of glucose levels can affect this antibiotic effectiveness</t>
+  </si>
+  <si>
+    <t>there is a slight correlation between these markers. For example, in acute viral hepatitis, both levels may be elevated due to the damaged caused to liver cells</t>
+  </si>
+  <si>
+    <t>these two markers are not usually correlated</t>
+  </si>
+  <si>
+    <t>Cholesterol levels are not correlated to white blood cells</t>
+  </si>
+  <si>
+    <t>body temperature can indicate a process of infection, and therefore, the presence of white blood cells</t>
+  </si>
+  <si>
+    <t>at first glance, there is no correlation between these markers</t>
+  </si>
+  <si>
+    <t>leukocytes and bilirubin usually are not correlated</t>
+  </si>
+  <si>
+    <t>there are some cases in which high levels of bilirubin can cause an increase in body temperature</t>
+  </si>
+  <si>
+    <t>usually, there is no correlation between C reactive protein and bilirubin</t>
+  </si>
+  <si>
+    <t>bilirubin and cefazolin do not have to be correlated under normal circumstances</t>
+  </si>
+  <si>
+    <t>calcium ionized and bilirubin do not have to be correlated under normal circumstances</t>
+  </si>
+  <si>
+    <t>at first glance, there is no correlation between cholesterol and bilirubin</t>
+  </si>
+  <si>
+    <t>bilirubin and major crossmatch do not have to be correlated in any way under normal circumstances</t>
+  </si>
+  <si>
+    <t>some patients that take nitrofurantoin can lead to elevated bilirubin levels</t>
+  </si>
+  <si>
+    <t>under normal circumstances, vancomycin and bilirubin do not have to be correlated</t>
+  </si>
+  <si>
+    <t>There is no correlation between bilirubin and ABO group from blood product unit</t>
+  </si>
+  <si>
+    <t>The levels of hematrocts is not correlated to the presence of whit blood cells</t>
+  </si>
+  <si>
+    <t>bilirubin and calcium are not usually correlated</t>
+  </si>
+  <si>
+    <t>calcium concentration does not have to be correlated to white blood cells</t>
+  </si>
+  <si>
+    <t>Susceptibility to certain antibiotics does not have directly correlated to white blood cells count</t>
+  </si>
+  <si>
+    <t>AST concentration does not reflect enything on white blood cells</t>
+  </si>
+  <si>
+    <t>lymphocytes and bilirubin usually are not correlated</t>
+  </si>
+  <si>
+    <t>albumin/globulin and bilirubin do not have to be correlated under normal circumstances</t>
+  </si>
+  <si>
+    <t>The presence of hepatitis virus dna can cause inflamation on the liver and therefore increase white blood cells count</t>
+  </si>
+  <si>
+    <t>albumin and bilirubin do not have to be correlated under normal circumstances</t>
+  </si>
+  <si>
+    <t>although some antibiotics can be affected by glucose levels, the norm is that it does not have a significant effect</t>
+  </si>
+  <si>
+    <t>Although some antibiotics can be affected by glucose levels, the norm is that it does not have a significant effect</t>
+  </si>
+  <si>
+    <t>both hepatitis B and bilirubin are associated with the liver</t>
+  </si>
+  <si>
+    <t>at first glance, there is no correlation between carcinoembryonic antigen and bilirubin</t>
+  </si>
+  <si>
+    <t>usually, there is no correlation between tyrosine aminotransferase and bilirubin</t>
+  </si>
+  <si>
+    <t>no correlation between these two markers</t>
+  </si>
+  <si>
+    <t>The presence of staphylococus can trigger an inmune response, anf therefore, increase white blood cells count</t>
+  </si>
+  <si>
+    <t>Type of blood does not affect the count of white blood cells</t>
+  </si>
+  <si>
+    <t>there is no clear correlation between bilirubin and gentamicin</t>
+  </si>
+  <si>
+    <t>the presence of calcium bilirubinate is an indication of excess bilirubin</t>
+  </si>
+  <si>
+    <t>no correlation between a hormone that maintains the pregnancy and white blood cells count</t>
+  </si>
+  <si>
+    <t>both are indicators of liver functions</t>
+  </si>
+  <si>
+    <t>Some conditions can both affect chloride levels in blood and white blood cells count</t>
+  </si>
+  <si>
+    <t>under normal circumstances, indirect antiglobulin and bilirubin do not have to be correlated</t>
+  </si>
+  <si>
+    <t>Some conditions can both affect chloride levels in blood and white blood cells count, such as hyperparathyroidism</t>
+  </si>
+  <si>
+    <t>they both can be affected by certain medications</t>
+  </si>
+  <si>
+    <t>defficit of vitamin B12 can cause anemia and therefore decrease white blood cell production</t>
+  </si>
+  <si>
+    <t>usually, there is no correlation between cobalamin and bilirubin</t>
+  </si>
+  <si>
+    <t>bilirubin and blood product disposition are not usually correlated</t>
+  </si>
+  <si>
+    <t>cancer can cause inflamation, and therefore, increase the count of white blood cells</t>
+  </si>
+  <si>
+    <t>levofloxacin has the potential to cause liver damage, which could lead to an increase in bilirubin levels</t>
+  </si>
+  <si>
+    <t>elevated levels of alkaline phosphatase has the potential to cause liver damage, which could lead to an increase in bilirubin levels</t>
+  </si>
+  <si>
+    <t>autoinmune conditions are not directly related to white blood cell production, but can affect it</t>
+  </si>
+  <si>
+    <t>bilirubin and hematocrit are not usually correlated</t>
+  </si>
+  <si>
+    <t>Monocytes are a type pf white blood cell</t>
+  </si>
+  <si>
+    <t>under normal circumstances, calcium bilirubinate and white blood cells are not correlated</t>
+  </si>
+  <si>
+    <t>compatibility between blood donors does not affect white blood cells count</t>
+  </si>
+  <si>
+    <t>white blood cells and C reactive protein are not correlated under normal circumstances</t>
+  </si>
+  <si>
+    <t>Lymphocytes are a type of white cell</t>
+  </si>
+  <si>
+    <t>usually, there is no correlation between tyrosine aminotransferase and white blood cells</t>
+  </si>
+  <si>
+    <t>although liver damage from infections and inflamation can affect white blood cells count, there could be pther patologies that do not</t>
   </si>
 </sst>
 </file>
@@ -723,12 +1146,36 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -743,8 +1190,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1056,23 +1507,26 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E70"/>
+  <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A34" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="78.73046875" customWidth="1"/>
+    <col min="2" max="2" width="78.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="7" max="7" width="223" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -1088,1144 +1542,1552 @@
       <c r="E3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+      <c r="F3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+      <c r="F4" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
+      <c r="F5" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
+      <c r="F6" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
+      <c r="F7" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="D8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
+      <c r="F8" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="D9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
+      <c r="F9" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
+      <c r="F10" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
+      <c r="F11" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="D12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="D12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
+      <c r="F12" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="D13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
+      <c r="F13" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
+      <c r="F14" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
+      <c r="F15" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
+      <c r="F16" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="D17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
+      <c r="F17" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
+      <c r="F18" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="D19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
+      <c r="F19" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="2" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
+      <c r="F20" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
+      <c r="F21" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="D22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
+      <c r="F22" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
+      <c r="F23" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="D24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
+      <c r="F24" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D25" t="s">
-        <v>3</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="D25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
+      <c r="F25" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
+      <c r="F26" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
+      <c r="F27" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
+      <c r="F28" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="2" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
+      <c r="F29" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
+      <c r="F30" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D31" t="s">
-        <v>3</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="D31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
+      <c r="F31" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D32" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="D32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
+      <c r="F32" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A34" t="s">
+      <c r="F33" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D34" t="s">
-        <v>3</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="D34" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A35" t="s">
+      <c r="F34" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="D35" t="s">
-        <v>3</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="D35" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A36" t="s">
+      <c r="F35" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D36" t="s">
-        <v>3</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="D36" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A37" t="s">
+      <c r="F36" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A38" t="s">
+      <c r="F37" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A39" t="s">
+      <c r="F38" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A40" t="s">
+      <c r="F39" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="D40" t="s">
-        <v>3</v>
-      </c>
-      <c r="E40" t="s">
+      <c r="D40" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A41" t="s">
+      <c r="F40" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A42" t="s">
+      <c r="F41" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A43" t="s">
+      <c r="F42" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="2" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A44" t="s">
+      <c r="F43" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D44" t="s">
-        <v>3</v>
-      </c>
-      <c r="E44" t="s">
+      <c r="D44" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A45" t="s">
+      <c r="F44" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A46" t="s">
+      <c r="F45" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A47" t="s">
+      <c r="F46" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D47" t="s">
-        <v>3</v>
-      </c>
-      <c r="E47" t="s">
+      <c r="D47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A48" t="s">
+      <c r="F47" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A49" t="s">
+      <c r="F48" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A50" t="s">
+      <c r="F49" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="D50" t="s">
-        <v>3</v>
-      </c>
-      <c r="E50" t="s">
+      <c r="D50" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A51" t="s">
+      <c r="F50" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A52" t="s">
+      <c r="F51" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A53" t="s">
+      <c r="F52" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D53" t="s">
-        <v>3</v>
-      </c>
-      <c r="E53" t="s">
+      <c r="D53" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A54" t="s">
+      <c r="F53" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A55" t="s">
+      <c r="F54" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A56" t="s">
+      <c r="F55" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E56" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A57" t="s">
+      <c r="F56" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D57" t="s">
-        <v>3</v>
-      </c>
-      <c r="E57" t="s">
+      <c r="D57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A58" t="s">
+      <c r="F57" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D58" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" t="s">
+      <c r="D58" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A59" t="s">
+      <c r="F58" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D59" t="s">
-        <v>3</v>
-      </c>
-      <c r="E59" t="s">
+      <c r="D59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A60" t="s">
+      <c r="F59" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D60" t="s">
-        <v>3</v>
-      </c>
-      <c r="E60" t="s">
+      <c r="D60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E60" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A61" t="s">
+      <c r="F60" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D61" t="s">
-        <v>3</v>
-      </c>
-      <c r="E61" t="s">
+      <c r="D61" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A62" t="s">
+      <c r="F61" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D62" t="s">
-        <v>3</v>
-      </c>
-      <c r="E62" t="s">
+      <c r="D62" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A63" t="s">
+      <c r="F62" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D63" t="s">
-        <v>3</v>
-      </c>
-      <c r="E63" t="s">
+      <c r="D63" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A64" t="s">
+      <c r="F63" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E64" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A65" t="s">
+      <c r="F64" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D65" t="s">
-        <v>3</v>
-      </c>
-      <c r="E65" t="s">
+      <c r="D65" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A66" t="s">
+      <c r="F65" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E66" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A67" t="s">
+      <c r="F66" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E67" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A68" t="s">
+      <c r="F67" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E68" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A69" t="s">
+      <c r="F68" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D69" t="s">
-        <v>3</v>
-      </c>
-      <c r="E69" t="s">
+      <c r="D69" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A70" t="s">
+      <c r="F69" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E70" s="2" t="s">
         <v>112</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -2239,21 +3101,25 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E70"/>
+  <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A31" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="71.73046875" customWidth="1"/>
+    <col min="2" max="2" width="71.6640625" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="7" max="7" width="189.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -2269,1144 +3135,1552 @@
       <c r="E3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+      <c r="F3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+      <c r="F4" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="D5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
+      <c r="F5" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
+      <c r="F6" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
+      <c r="F7" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
+      <c r="F8" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
+      <c r="F9" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="2" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
+      <c r="F10" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
+      <c r="F11" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
+      <c r="F12" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="D13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
+      <c r="F13" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
+      <c r="F14" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="D15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
+      <c r="F15" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
+      <c r="F16" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
+      <c r="F17" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="D18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
+      <c r="F18" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="D19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
+      <c r="F19" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
+      <c r="F20" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="D21" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="D21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
+      <c r="F21" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="4" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
+      <c r="F22" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
+      <c r="F23" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
+      <c r="F24" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D25" t="s">
-        <v>3</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="D25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
+      <c r="F25" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
+      <c r="F26" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D27" t="s">
-        <v>3</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="D27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
+      <c r="F27" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D28" t="s">
-        <v>3</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="D28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
+      <c r="F28" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D29" t="s">
-        <v>3</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="D29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
+      <c r="F29" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
+      <c r="F30" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
+      <c r="F31" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D32" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="D32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
+      <c r="F32" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A34" t="s">
+      <c r="F33" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A35" t="s">
+      <c r="F34" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A36" t="s">
+      <c r="F35" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D36" t="s">
-        <v>3</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="D36" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A37" t="s">
+      <c r="F36" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="D37" t="s">
-        <v>3</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="D37" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A38" t="s">
+      <c r="F37" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E38" t="s">
+      <c r="D38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A39" t="s">
+      <c r="F38" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A40" t="s">
+      <c r="F39" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A41" t="s">
+      <c r="F40" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A42" t="s">
+      <c r="F41" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A43" t="s">
+      <c r="F42" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A44" t="s">
+      <c r="F43" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="D44" t="s">
-        <v>3</v>
-      </c>
-      <c r="E44" t="s">
+      <c r="D44" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A45" t="s">
+      <c r="F44" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D45" t="s">
-        <v>3</v>
-      </c>
-      <c r="E45" t="s">
+      <c r="D45" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A46" t="s">
+      <c r="F45" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A47" t="s">
+      <c r="F46" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A48" t="s">
+      <c r="F47" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D48" t="s">
-        <v>3</v>
-      </c>
-      <c r="E48" t="s">
+      <c r="D48" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A49" t="s">
+      <c r="F48" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A50" t="s">
+      <c r="F49" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D50" t="s">
-        <v>3</v>
-      </c>
-      <c r="E50" t="s">
+      <c r="D50" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A51" t="s">
+      <c r="F50" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A52" t="s">
+      <c r="F51" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="D52" t="s">
-        <v>3</v>
-      </c>
-      <c r="E52" t="s">
+      <c r="D52" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A53" t="s">
+      <c r="F52" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A54" t="s">
+      <c r="F53" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" s="4" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A55" t="s">
+      <c r="F54" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="D55" t="s">
-        <v>3</v>
-      </c>
-      <c r="E55" t="s">
+      <c r="D55" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A56" t="s">
+      <c r="F55" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D56" t="s">
-        <v>3</v>
-      </c>
-      <c r="E56" t="s">
+      <c r="D56" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A57" t="s">
+      <c r="F56" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D57" t="s">
-        <v>3</v>
-      </c>
-      <c r="E57" t="s">
+      <c r="D57" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A58" t="s">
+      <c r="F57" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E58" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A59" t="s">
+      <c r="F58" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D59" t="s">
-        <v>3</v>
-      </c>
-      <c r="E59" t="s">
+      <c r="D59" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59" s="4" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A60" t="s">
+      <c r="F59" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60" s="2" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A61" t="s">
+      <c r="F60" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D61" t="s">
-        <v>3</v>
-      </c>
-      <c r="E61" t="s">
+      <c r="D61" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A62" t="s">
+      <c r="F61" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D62" t="s">
-        <v>3</v>
-      </c>
-      <c r="E62" t="s">
+      <c r="D62" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A63" t="s">
+      <c r="F62" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E63" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A64" t="s">
+      <c r="F63" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E64" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A65" t="s">
+      <c r="F64" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E65" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A66" t="s">
+      <c r="F65" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D66" t="s">
-        <v>3</v>
-      </c>
-      <c r="E66" t="s">
+      <c r="D66" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E66" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A67" t="s">
+      <c r="F66" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D67" t="s">
-        <v>3</v>
-      </c>
-      <c r="E67" t="s">
+      <c r="D67" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A68" t="s">
+      <c r="F67" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D68" t="s">
-        <v>3</v>
-      </c>
-      <c r="E68" t="s">
+      <c r="D68" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A69" t="s">
+      <c r="F68" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E69" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A70" t="s">
+      <c r="F69" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D70" t="s">
-        <v>3</v>
-      </c>
-      <c r="E70" t="s">
+      <c r="D70" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>36</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -3420,23 +4694,26 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E70"/>
+  <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="80.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="80.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="205.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -3452,1148 +4729,1808 @@
       <c r="E3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+      <c r="F3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+      <c r="F4" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="D5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
+      <c r="F5" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
+      <c r="F6" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
+      <c r="F7" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
+      <c r="F8" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="D9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
+      <c r="F9" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="D10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
+      <c r="F10" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
+      <c r="F11" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
+      <c r="F12" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="D13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
+      <c r="F13" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="3" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
+      <c r="F14" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
+      <c r="F15" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="D16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
+      <c r="F16" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="D17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
+      <c r="F17" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
+      <c r="F18" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
+      <c r="F19" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
+      <c r="F20" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D21" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="D21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
+      <c r="F21" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
+      <c r="F22" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D23" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="D23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
+      <c r="F23" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
+      <c r="F24" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
+      <c r="F25" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="2" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
+      <c r="F26" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
+      <c r="F27" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
+      <c r="F28" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="D29" t="s">
-        <v>3</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="D29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
+      <c r="F29" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D30" t="s">
-        <v>3</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="D30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
+      <c r="F30" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D31" t="s">
-        <v>3</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="D31" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
+      <c r="F31" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
+      <c r="F32" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A34" t="s">
+      <c r="F33" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="D34" t="s">
-        <v>3</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="D34" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A35" t="s">
+      <c r="F34" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A36" t="s">
+      <c r="F35" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A37" t="s">
+      <c r="F36" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A38" t="s">
+      <c r="F37" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E38" t="s">
+      <c r="D38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A39" t="s">
+      <c r="F38" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A40" t="s">
+      <c r="F39" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D40" t="s">
-        <v>3</v>
-      </c>
-      <c r="E40" t="s">
+      <c r="D40" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A41" t="s">
+      <c r="F40" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="3" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A42" t="s">
+      <c r="F41" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="D42" t="s">
-        <v>3</v>
-      </c>
-      <c r="E42" t="s">
+      <c r="D42" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" s="4" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A43" t="s">
+      <c r="F42" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D43" t="s">
-        <v>3</v>
-      </c>
-      <c r="E43" t="s">
+      <c r="D43" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A44" t="s">
+      <c r="F43" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="D44" t="s">
-        <v>3</v>
-      </c>
-      <c r="E44" t="s">
+      <c r="D44" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A45" t="s">
+      <c r="F44" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D45" t="s">
-        <v>3</v>
-      </c>
-      <c r="E45" t="s">
+      <c r="D45" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A46" t="s">
+      <c r="F45" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D46" t="s">
-        <v>3</v>
-      </c>
-      <c r="E46" t="s">
+      <c r="D46" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A47" t="s">
+      <c r="F46" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A48" t="s">
+      <c r="F47" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D48" t="s">
-        <v>3</v>
-      </c>
-      <c r="E48" t="s">
+      <c r="D48" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A49" t="s">
+      <c r="F48" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D49" t="s">
-        <v>3</v>
-      </c>
-      <c r="E49" t="s">
+      <c r="D49" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A50" t="s">
+      <c r="F49" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A51" t="s">
+      <c r="F50" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D51" t="s">
-        <v>3</v>
-      </c>
-      <c r="E51" t="s">
+      <c r="D51" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A52" t="s">
+      <c r="F51" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D52" t="s">
-        <v>3</v>
-      </c>
-      <c r="E52" t="s">
+      <c r="D52" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A53" t="s">
+      <c r="F52" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A54" t="s">
+      <c r="F53" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D54" t="s">
-        <v>3</v>
-      </c>
-      <c r="E54" t="s">
+      <c r="D54" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A55" t="s">
+      <c r="F54" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D55" t="s">
-        <v>3</v>
-      </c>
-      <c r="E55" t="s">
+      <c r="D55" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A56" t="s">
+      <c r="F55" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E56" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A57" t="s">
+      <c r="F56" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D57" t="s">
-        <v>3</v>
-      </c>
-      <c r="E57" t="s">
+      <c r="D57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A58" t="s">
+      <c r="F57" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E58" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A59" t="s">
+      <c r="F58" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A60" t="s">
+      <c r="F59" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D60" t="s">
-        <v>3</v>
-      </c>
-      <c r="E60" t="s">
+      <c r="D60" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A61" t="s">
+      <c r="F60" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E61" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A62" t="s">
+      <c r="F61" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E62" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A63" t="s">
+      <c r="F62" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E63" s="3" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A64" t="s">
+      <c r="F63" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E64" s="2" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A65" t="s">
+      <c r="F64" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E65" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A66" t="s">
+      <c r="F65" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E66" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A67" t="s">
+      <c r="F66" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="D67" t="s">
-        <v>3</v>
-      </c>
-      <c r="E67" t="s">
+      <c r="D67" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A68" t="s">
+      <c r="F67" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E68" s="4" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A69" t="s">
+      <c r="F68" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D69" t="s">
-        <v>3</v>
-      </c>
-      <c r="E69" t="s">
+      <c r="D69" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E69" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A70" t="s">
+      <c r="F69" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E70" s="2" t="s">
         <v>112</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>331</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="68" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="7be9cb9a-d88a-4fee-92d5-dc811f462613" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101009FADB2B9F48E0D4EB03B5FC027A3018B" ma:contentTypeVersion="8" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="c39f697f4d25a4c6ac366746be2c2d28">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="10f6b508-21a4-46a4-b6fc-d73bc7af7b2f" xmlns:ns4="7be9cb9a-d88a-4fee-92d5-dc811f462613" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="db2155df8aff23fd227d2511fecb26f2" ns3:_="" ns4:_="">
+    <xsd:import namespace="10f6b508-21a4-46a4-b6fc-d73bc7af7b2f"/>
+    <xsd:import namespace="7be9cb9a-d88a-4fee-92d5-dc811f462613"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns3:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns4:_activity" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="10f6b508-21a4-46a4-b6fc-d73bc7af7b2f" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="8" nillable="true" ma:displayName="Compartido con" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="9" nillable="true" ma:displayName="Detalles de uso compartido" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="10" nillable="true" ma:displayName="Hash de la sugerencia para compartir" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="7be9cb9a-d88a-4fee-92d5-dc811f462613" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="11" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="12" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="13" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="14" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_activity" ma:index="15" nillable="true" ma:displayName="_activity" ma:hidden="true" ma:internalName="_activity">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B39882D0-2015-48C3-803F-6EF8FA3ED25A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7161D9A1-CD78-4C15-9715-594165D0E7B4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="10f6b508-21a4-46a4-b6fc-d73bc7af7b2f"/>
+    <ds:schemaRef ds:uri="7be9cb9a-d88a-4fee-92d5-dc811f462613"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9BF8984-63E0-4F74-A403-5AAC6BC22FC2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="10f6b508-21a4-46a4-b6fc-d73bc7af7b2f"/>
+    <ds:schemaRef ds:uri="7be9cb9a-d88a-4fee-92d5-dc811f462613"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>